--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3467653.136453903</v>
+        <v>3461931.524486017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095103</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8205598.847109547</v>
+        <v>8205598.847109546</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>146.7032454636445</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>254.7213597648899</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>99.8790230181008</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.5019325804552</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.3349025342644</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>246.3438732753386</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>223.2017705496292</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396191</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>179.0695033394913</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.3266517214975</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292737</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.32299157959668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>58.49982625596395</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>27.3110515374914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>154.033384197392</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.08326445320517</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>119.896268808206</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>92.09843453981388</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>8.264251623628999</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.912059420590616</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396209</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>46.44825120908466</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>176.9417733792299</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>52.82896478301581</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.5769297729266</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851125</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734104173</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.960678120146266</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>15.11174121957136</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2548.963994590299</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W2" t="n">
-        <v>1736.252158680222</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X2" t="n">
-        <v>1736.252158680222</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4515,22 +4515,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1060.400888678774</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C5" t="n">
-        <v>1060.400888678774</v>
+        <v>1138.689965955915</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>780.4242673491644</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>394.6360147509202</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.140060718708</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1447.000728742896</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620.08070321196</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.08070321196</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1261.81500460521</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.08070321196</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196075</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420602</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1685.634722660726</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1463.868107230252</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1463.868107230252</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.183619024365</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.183619024365</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.183619024365</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.3910398808349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,22 +5281,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>848.050910509603</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1299.085123758012</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>1832.617028429936</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5305,10 +5305,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>912.4603716292689</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>743.524188701362</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>593.4075492890263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>445.4944557066332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>445.4944557066332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.890966501056</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1542.890966501056</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1314.901415603039</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1094.108836459509</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.14153360016</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089271</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>932.5990189467736</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272053</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.0030950818858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.555923688682</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>992.5663727906651</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>771.773793647135</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3312.624700939794</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3312.624700939794</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3162.508061527459</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246546</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816072</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4305.508489224189</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4050.824001018303</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3761.406830981342</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3533.417280083324</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3312.624700939794</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L23" t="n">
-        <v>1076.848340014666</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
         <v>2055.398642844494</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>681.2836032803235</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="C25" t="n">
-        <v>681.2836032803235</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="D25" t="n">
-        <v>681.2836032803235</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>251.1503114154571</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>251.1503114154571</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6186,13 +6186,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783409</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>681.2836032803235</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.2836032803235</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551612</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089251</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.440165407421</v>
       </c>
       <c r="K26" t="n">
-        <v>932.5990189467736</v>
+        <v>618.2595390972692</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600128</v>
+        <v>1482.778354750626</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2461.328657580457</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>3441.080929807106</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750053</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107233</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320276</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454345</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008802</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426858</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902963</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>529.0120128405563</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="C28" t="n">
-        <v>360.0758299126494</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="D28" t="n">
-        <v>360.0758299126494</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="E28" t="n">
-        <v>212.1627363302563</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>313.99405386056</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300489</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931536</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501062</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626706</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851287</v>
+        <v>999.103611420819</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143261</v>
+        <v>709.6864413838584</v>
       </c>
       <c r="X28" t="n">
-        <v>931.4530568143261</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.660477670796</v>
+        <v>481.6968904858411</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6466,25 +6466,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2730.494725501681</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3610.459375831136</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4323.814463278081</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6545,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858347</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D31" t="n">
-        <v>481.6968904858347</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>388.668168728447</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
         <v>241.7782212305366</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1444.712780345828</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.028292139941</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.028292139941</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>962.0387412419233</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>741.2461620983931</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6706,19 +6706,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518747</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.23671557753</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862918</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>590.1253288168953</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>421.1891458889884</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>421.1891458889884</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>273.2760523065953</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>273.2760523065953</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>105.5732156813142</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>105.5732156813142</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1509.973093725643</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.555923688682</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>992.5663727906651</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>771.773793647135</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6934,37 +6934,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3070.887536710053</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1687.659425210508</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1432.974937004621</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1432.974937004621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1204.985386106604</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3551.938043311329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>3383.001860383422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3232.885220971086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4096.039701554177</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>3841.355213348289</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>3551.938043311329</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>3551.938043311329</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>3551.938043311329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
@@ -7408,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.058578925877</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2265.590483597802</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656584</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986039</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7496,34 +7496,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.6330486738366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>613.6330486738366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>463.5164092615008</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>463.5164092615008</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>316.6264617635904</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>148.9236251383094</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>841.6225995718539</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>613.6330486738366</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.6330486738366</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074184</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686959</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522048</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193969</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420613</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750065</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.74829410724</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862921</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973202</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161932</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549419</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494864</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763713</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390109</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193566</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320199</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454348</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008801</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,13 +7766,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3400.798257814519</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>3231.862074886612</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>3231.862074886612</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>3231.862074886612</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>3084.972127388702</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.26929076342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.26929076342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.26929076342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210355</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159231</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607726</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207274</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913137</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.83392583355</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267208</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419722</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4767.990431389271</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.304547216097</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>4354.537931785623</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.537931785623</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V46" t="n">
-        <v>4099.853443579736</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W46" t="n">
-        <v>3810.436273542776</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X46" t="n">
-        <v>3582.446722644759</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y46" t="n">
-        <v>3582.446722644759</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>315.16792171093</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>63.01588120402386</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>317.5146261106135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>73.34731650832668</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L23" t="n">
-        <v>7.630896635343959</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>317.5146261106135</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640008</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.4180109385398</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,22 +10354,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>198.7154374299945</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>185.3870697685874</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>96.13798426930725</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3140082169181</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701346</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>10.69952199195058</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>60.69915653753073</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.5089886023406</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>227.7120119496489</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>119.1229111090778</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.99242406163623</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>126.3377835697261</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>24.85874610611468</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.33552810675529</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.9475865819839</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>86.44036098924747</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>239.7635869965282</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>109.2700648263829</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>91.92605013130498</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983833</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.97147454990142</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695865.7317752831</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695865.7317752835</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.2163965703</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="G2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="H2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="I2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965694</v>
       </c>
       <c r="K2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="L2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="M2" t="n">
-        <v>714747.2163965707</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="N2" t="n">
         <v>714747.2163965707</v>
       </c>
       <c r="O2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="P2" t="n">
-        <v>714747.2163965696</v>
+        <v>714747.2163965704</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925955</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-8.162879752247438e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.208688100062621e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709179</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709185</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.6079970918</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709167</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709182</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709214</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371372</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="O5" t="n">
-        <v>96383.51825371367</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.960792529</v>
+        <v>-126095.9607925289</v>
       </c>
       <c r="C6" t="n">
+        <v>463871.9184220156</v>
+      </c>
+      <c r="D6" t="n">
         <v>463871.9184220155</v>
       </c>
-      <c r="D6" t="n">
-        <v>463871.9184220157</v>
-      </c>
       <c r="E6" t="n">
-        <v>-130633.323847642</v>
+        <v>-131305.2787498995</v>
       </c>
       <c r="F6" t="n">
-        <v>596744.0901457649</v>
+        <v>596072.1352435073</v>
       </c>
       <c r="G6" t="n">
-        <v>596744.090145765</v>
+        <v>596072.1352435072</v>
       </c>
       <c r="H6" t="n">
-        <v>596744.090145765</v>
+        <v>596072.1352435071</v>
       </c>
       <c r="I6" t="n">
-        <v>596744.090145765</v>
+        <v>596072.1352435073</v>
       </c>
       <c r="J6" t="n">
-        <v>420320.870953172</v>
+        <v>419648.9160509105</v>
       </c>
       <c r="K6" t="n">
-        <v>596744.0901457651</v>
+        <v>596072.1352435098</v>
       </c>
       <c r="L6" t="n">
-        <v>596744.090145765</v>
+        <v>596072.1352435071</v>
       </c>
       <c r="M6" t="n">
-        <v>467101.7753068204</v>
+        <v>466429.8204045621</v>
       </c>
       <c r="N6" t="n">
-        <v>596744.0901457652</v>
+        <v>596072.1352435073</v>
       </c>
       <c r="O6" t="n">
-        <v>596744.0901457646</v>
+        <v>596072.1352435072</v>
       </c>
       <c r="P6" t="n">
-        <v>596744.0901457667</v>
+        <v>596072.1352435071</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593294</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.150498268134708e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.341937059122656e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>27.71246734532698</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>94.51960895252307</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>254.8040186025822</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.37411316125628</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>6.974899724786468</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>40.17912506125245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>158.7285995226326</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>28.31325977179807</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.098714055806786e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32095,10 +32095,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32794,10 +32794,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233493</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698737</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.38101186168158</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284465</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974793</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003788</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623166</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574964</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990094993</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.151212309903</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746389</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781671</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563558</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806911</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451113</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345264</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502557</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752225</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026429</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353142</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138776</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233602</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.64781668379</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970228</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002909</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987475</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905535</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238299</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.44815837589846</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462209</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.96517109943053</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311872</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451741995</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702015</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098808</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316421</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883103</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.768002308599</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880216</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895874</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071218</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553022</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112262</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.107191150878029</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>867.4697571238415</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>400.2071677594244</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35658,16 +35658,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35743,10 +35743,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>654.705912666014</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>625.6491519212382</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L23" t="n">
-        <v>463.2210110276761</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36442,10 +36442,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K26" t="n">
-        <v>654.705912666014</v>
+        <v>337.1912865554022</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427848</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230616</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248981</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282295</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193738</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803721</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222563</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901331</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127155</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.2123157422593</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>737.6365532602213</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>693.4400706568065</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
@@ -37554,19 +37554,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>604.1909851575264</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>800.9041226092503</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,13 +37794,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687111</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>539.1576964255328</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427798</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302237</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248925</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509616</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193694</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037176</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.6131985422237</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597622</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609552</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340034</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013419</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004567</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525784</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859607</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612726</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306568</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443187</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170197</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934826</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675389</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226387</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451095</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.394238537893</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3461931.524486017</v>
+        <v>3465337.015610466</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095089</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>146.7032454636445</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>210.7855413993644</v>
       </c>
       <c r="F5" t="n">
-        <v>323.5019325804552</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.3349025342644</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571568</v>
+        <v>9.444300038938989</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095413</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206848</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>270.0697021486465</v>
+        <v>164.0998973803964</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>28.00806043385895</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292737</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>154.033384197392</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>162.5067281800273</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>119.896268808206</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983792</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314418</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>126.8772582534102</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>8.264251623628999</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>181.4487096095768</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>59.90320919298809</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>17.25588147840143</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>15.11174121957136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>205.1919266819904</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2548.963994590299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2330.329327562361</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2330.329327562361</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1999.266440218791</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1646.497784948677</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1273.032026687597</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.8926947117852</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
         <v>502.7251118619119</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.689965955915</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D5" t="n">
-        <v>780.4242673491644</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="E5" t="n">
-        <v>394.6360147509202</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>500.1394333084169</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>352.2263397260238</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>352.2263397260238</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>993.1781615428677</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>634.9124629361172</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>634.9124629361172</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4901,25 +4901,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5056,7 +5056,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1509.069652587648</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1254.385164381761</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>964.9679943448</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5284,13 +5284,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5305,19 +5305,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.14153360016</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089271</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,25 +5594,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089261</v>
@@ -5752,22 +5752,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2750.971543384381</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,40 +5831,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924161</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902953</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>399.0634049978502</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>399.0634049978502</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>399.0634049978502</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>251.1503114154571</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>251.1503114154571</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1378.7427562182</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1124.058268012313</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="X25" t="n">
-        <v>619.8559841413803</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.0634049978502</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551612</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089251</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.440165407421</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972692</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750626</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580457</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807106</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750053</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107233</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,64 +6281,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089886</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390124</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193607</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320276</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454345</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008802</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426858</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902963</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858411</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>481.6968904858411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>481.6968904858411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>481.6968904858411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>481.6968904858411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>313.99405386056</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953304</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931536</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501062</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626706</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>999.103611420819</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838584</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858411</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858411</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6490,25 +6490,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6621,10 +6621,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1444.712780345828</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.028292139941</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.028292139941</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>962.0387412419233</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.2461620983931</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,22 +6779,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6803,16 +6803,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>156.0693265625238</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6925,49 +6925,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1682.725100522031</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>112.991217759911</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,19 +7347,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
@@ -7368,16 +7368,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,22 +7490,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,22 +7584,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
         <v>1270.093287563029</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7797,19 +7797,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,28 +7821,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U46" t="n">
-        <v>1437.79612418831</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V46" t="n">
-        <v>1183.111635982423</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W46" t="n">
         <v>893.6944659454626</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9406,19 +9406,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>248.8400772687173</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.0478149561023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640008</v>
+        <v>135.6385654278969</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>16.14213605696636</v>
+        <v>122.1119408252165</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>151.8239197480783</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>11.99242406163623</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>123.7051100255856</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.85874610611468</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004706</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>159.6457400831808</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.9475865819839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>84.85180572133268</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445298</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>271.1000969860415</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>81.33107165460063</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752831</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="F2" t="n">
+        <v>714747.2163965703</v>
+      </c>
+      <c r="G2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="H2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="I2" t="n">
         <v>714747.2163965706</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>714747.2163965707</v>
-      </c>
-      <c r="G2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="H2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965694</v>
       </c>
       <c r="K2" t="n">
         <v>714747.2163965707</v>
@@ -26346,16 +26346,16 @@
         <v>714747.2163965704</v>
       </c>
       <c r="M2" t="n">
-        <v>714747.2163965703</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="N2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="O2" t="n">
         <v>714747.2163965707</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>714747.2163965706</v>
-      </c>
-      <c r="P2" t="n">
-        <v>714747.2163965704</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925955</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>-8.162879752247438e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709179</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.6079970918</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709167</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.9607925289</v>
+        <v>-126095.960792529</v>
       </c>
       <c r="C6" t="n">
-        <v>463871.9184220156</v>
+        <v>463871.9184220155</v>
       </c>
       <c r="D6" t="n">
         <v>463871.9184220155</v>
       </c>
       <c r="E6" t="n">
-        <v>-131305.2787498995</v>
+        <v>-130700.5193378674</v>
       </c>
       <c r="F6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555391</v>
       </c>
       <c r="G6" t="n">
-        <v>596072.1352435072</v>
+        <v>596676.8946555394</v>
       </c>
       <c r="H6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555394</v>
       </c>
       <c r="I6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="J6" t="n">
-        <v>419648.9160509105</v>
+        <v>420253.6754629464</v>
       </c>
       <c r="K6" t="n">
-        <v>596072.1352435098</v>
+        <v>596676.8946555394</v>
       </c>
       <c r="L6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555392</v>
       </c>
       <c r="M6" t="n">
-        <v>466429.8204045621</v>
+        <v>467034.5798165945</v>
       </c>
       <c r="N6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555392</v>
       </c>
       <c r="O6" t="n">
-        <v>596072.1352435072</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="P6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555393</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.150498268134708e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.71246734532698</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>171.1448286728974</v>
       </c>
       <c r="F5" t="n">
-        <v>83.37411316125628</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.974899724786468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359958</v>
+        <v>397.4317457027724</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758288</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31846,13 +31846,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
         <v>557.708647897025</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974805</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781704</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451126</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.215670698737</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297395</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895886</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35494,13 +35494,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525806</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>787.7611930989439</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115028</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687138</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554022</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427848</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230616</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248981</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282295</v>
+        <v>643.6915663161159</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193738</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.794304803721</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222563</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597779</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127155</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306668</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789417</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>559.3763608778462</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499112</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115035</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
